--- a/outputs_HGR/o__Lactobacillales.xlsx
+++ b/outputs_HGR/o__Lactobacillales.xlsx
@@ -7687,7 +7687,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>f__Leuconostocaceae</t>
+          <t>f__Leuconostocaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>f__Lactobacillaceae</t>
+          <t>f__Lactobacillaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>f__Lactobacillaceae</t>
+          <t>f__Lactobacillaceae(reject)</t>
         </is>
       </c>
     </row>
